--- a/PROGRESS SHEET.xlsx
+++ b/PROGRESS SHEET.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Core\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D20AAE9-4797-4AF0-B818-3180C4CD5C76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{828B0B4C-3DF6-49C9-9527-FE265831F1D6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{9A3D35EB-962C-4399-AE62-AE683D737742}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="24">
   <si>
     <t>ALU</t>
   </si>
@@ -89,22 +89,22 @@
     <t>DONE</t>
   </si>
   <si>
-    <t>NOT DONE</t>
-  </si>
-  <si>
     <t>VERIFIED</t>
   </si>
   <si>
     <t>YES</t>
   </si>
   <si>
-    <t>NOT YET</t>
-  </si>
-  <si>
-    <t>CHANGES REQUIRED</t>
-  </si>
-  <si>
-    <t>M.Uzair Qureshi</t>
+    <t xml:space="preserve">IFU </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOP </t>
+  </si>
+  <si>
+    <t>NOT COMPLETED YET</t>
+  </si>
+  <si>
+    <t>M.UZAIR QURESHI</t>
   </si>
 </sst>
 </file>
@@ -493,16 +493,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA5D5315-1FE7-4665-9C1B-612A7A8FB357}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="30.85546875" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.28515625" customWidth="1"/>
     <col min="4" max="4" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.28515625" customWidth="1"/>
   </cols>
@@ -523,7 +521,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -537,7 +535,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -547,25 +545,25 @@
       <c r="B6" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>21</v>
+      <c r="D6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="5" t="s">
-        <v>21</v>
+      <c r="B7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -579,7 +577,7 @@
         <v>17</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -593,7 +591,7 @@
         <v>17</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -607,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -621,7 +619,7 @@
         <v>17</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -634,36 +632,36 @@
       <c r="D12" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>22</v>
+      <c r="F12" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>21</v>
+      <c r="B13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>21</v>
+      <c r="B14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -677,7 +675,7 @@
         <v>17</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -691,7 +689,7 @@
         <v>17</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -705,7 +703,7 @@
         <v>17</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -715,11 +713,33 @@
       <c r="B18" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="5" t="s">
+      <c r="D18" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>21</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
